--- a/ProductSerialNumber.xlsx
+++ b/ProductSerialNumber.xlsx
@@ -14,37 +14,25 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>64b25c3646c40f50f00e4f1e</t>
+    <t>QWERT10</t>
   </si>
   <si>
-    <t>1QWERT</t>
-  </si>
-  <si>
-    <t>64b26b8846c40f50f00e4fc2</t>
-  </si>
-  <si>
-    <t>2QWERT</t>
+    <t>QWERT12</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="7"/>
-      <color rgb="FF0451A5"/>
-      <name val="Consolas"/>
-      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -67,11 +55,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -376,28 +361,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
